--- a/우편물 발송 주소록.xlsx
+++ b/우편물 발송 주소록.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\medplan-server\medplan_file2\2021\20210312_한국중재의료기기학회 춘계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medplan-01\OneDrive\바탕 화면\kokoa-clone-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0338BCE9-AF1E-4BDA-8D5E-E30FE8AE24ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="10305"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>쿡 메디칼</t>
   </si>
@@ -420,14 +421,18 @@
   </si>
   <si>
     <t>서울 강남구 논현로64길 18 (대치동)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가입니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,7 +577,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 15" xfId="1"/>
+    <cellStyle name="표준 15" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -706,19 +711,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:G21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G21"/>
-  <sortState ref="A2:F22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A1:G22" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
     <sortCondition ref="B1:B22"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="회사명" dataDxfId="6"/>
-    <tableColumn id="5" name="성함" dataDxfId="5"/>
-    <tableColumn id="6" name="전화번호" dataDxfId="4"/>
-    <tableColumn id="7" name="도로명 주소" dataDxfId="3"/>
-    <tableColumn id="8" name="상세주소" dataDxfId="2"/>
-    <tableColumn id="9" name="우편번호" dataDxfId="1"/>
-    <tableColumn id="2" name="열1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="회사명" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="성함" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="전화번호" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="도로명 주소" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="상세주소" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="우편번호" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="열1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -986,14 +991,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
@@ -1002,7 +1007,7 @@
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -1025,7 +1030,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>78</v>
       </c>
@@ -1046,7 +1051,7 @@
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>78</v>
       </c>
@@ -1067,7 +1072,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1093,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1114,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1135,7 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1156,7 @@
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>78</v>
       </c>
@@ -1172,7 +1177,7 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1198,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>78</v>
       </c>
@@ -1214,7 +1219,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1240,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1261,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>78</v>
       </c>
@@ -1277,7 +1282,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>78</v>
       </c>
@@ -1298,7 +1303,7 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1324,7 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>78</v>
       </c>
@@ -1340,7 +1345,7 @@
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1366,7 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
@@ -1382,7 +1387,7 @@
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>78</v>
       </c>
@@ -1403,7 +1408,7 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1429,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>62</v>
       </c>
@@ -1447,13 +1452,16 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
